--- a/planilha_destruicao.xlsx
+++ b/planilha_destruicao.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>267415A</t>
+          <t>267415A (Trânsito)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>267415</t>
+          <t>267415 (Trânsito)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>264615</t>
+          <t>264615 (Trânsito)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>265678</t>
+          <t>265678 (Trânsito)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>255439</t>
+          <t>255439 (Trânsito)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>260472A</t>
+          <t>260472A (Trânsito)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>260472</t>
+          <t>260472 (Trânsito)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>254943</t>
+          <t>254943 (Trânsito)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -768,7 +768,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>254277</t>
+          <t>254277 (Trânsito)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -801,7 +801,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BA071837</t>
+          <t>BA071837 (Trânsito)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BA070137</t>
+          <t>BA070137 (Trânsito)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BA072282</t>
+          <t>BA072282 (Trânsito)</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BA068872</t>
+          <t>BA068872 (Trânsito)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -933,7 +933,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BA068212</t>
+          <t>BA068212 (Trânsito)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BA067049A</t>
+          <t>BA067049A (Trânsito)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>BA067049</t>
+          <t>BA067049 (Trânsito)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BA065737</t>
+          <t>BA065737 (Trânsito)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BA058362</t>
+          <t>BA058362 (Trânsito)</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BA064208</t>
+          <t>BA064208 (Trânsito)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BA057513</t>
+          <t>BA057513 (Trânsito)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BA056301</t>
+          <t>BA056301 (Trânsito)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BA057382</t>
+          <t>BA057382 (Trânsito)</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BA055981</t>
+          <t>BA055981 (Trânsito)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>BA054608</t>
+          <t>BA054608 (Trânsito)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>BA054517</t>
+          <t>BA054517 (Trânsito)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>BA054205</t>
+          <t>BA054205 (Trânsito)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>267268</t>
+          <t>267268 (Trânsito)</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>264620B</t>
+          <t>264620B (Trânsito)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>264620C</t>
+          <t>264620C (Trânsito)</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>263712B</t>
+          <t>263712B (Trânsito)</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>264620</t>
+          <t>264620 (Trânsito)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>264620A</t>
+          <t>264620A (Trânsito)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>263712A</t>
+          <t>263712A (Trânsito)</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>263712</t>
+          <t>263712 (Trânsito)</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>260467B</t>
+          <t>260467B (Trânsito)</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>260468</t>
+          <t>260468 (Trânsito)</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>258372A</t>
+          <t>258372A (Trânsito)</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>260467A</t>
+          <t>260467A (Trânsito)</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>260467</t>
+          <t>260467 (Trânsito)</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>258372</t>
+          <t>258372 (Trânsito)</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>260474</t>
+          <t>260474 (Trânsito)</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0J846B</t>
+          <t>0J846B (Trânsito)</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0K848A</t>
+          <t>0K848A (Trânsito)</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0J847A</t>
+          <t>0J847A (Trânsito)</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0H838C</t>
+          <t>0H838C (Trânsito)</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0G836BA</t>
+          <t>0G836BA (Trânsito)</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0G836B</t>
+          <t>0G836B (Trânsito)</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0F835B</t>
+          <t>0F835B (Trânsito)</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0F832D</t>
+          <t>0F832D (Trânsito)</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0F834C</t>
+          <t>0F834C (Trânsito)</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0F831A</t>
+          <t>0F831A (Trânsito)</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9L824AA</t>
+          <t>9L824AA (Trânsito)</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>9L824A</t>
+          <t>9L824A (Trânsito)</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>9K819B</t>
+          <t>9K819B (Trânsito)</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>9J815A</t>
+          <t>9J815A (Trânsito)</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9J811A</t>
+          <t>9J811A (Trânsito)</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2413,7 +2413,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>9I809E</t>
+          <t>9I809E (Trânsito)</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>9J813B</t>
+          <t>9J813B (Trânsito)</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>9J816A</t>
+          <t>9J816A (Trânsito)</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>9J811C</t>
+          <t>9J811C (Trânsito)</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>P00472A</t>
+          <t>P00472A (Trânsito)</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>P00470C</t>
+          <t>P00470C (Trânsito)</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>P00472B</t>
+          <t>P00472B (Trânsito)</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>P00464A</t>
+          <t>P00464A (Trânsito)</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>P00465B</t>
+          <t>P00465B (Trânsito)</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>P00465D</t>
+          <t>P00465D (Trânsito)</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>P00465C</t>
+          <t>P00465C (Trânsito)</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>P00457B</t>
+          <t>P00457B (Trânsito)</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>P00459C</t>
+          <t>P00459C (Trânsito)</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>P00457A</t>
+          <t>P00457A (Trânsito)</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>P00396E</t>
+          <t>P00396E (Trânsito)</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>P00407C</t>
+          <t>P00407C (Trânsito)</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>P00413D</t>
+          <t>P00413D (Trânsito)</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>P00428B</t>
+          <t>P00428B (Trânsito)</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>P00428BA</t>
+          <t>P00428BA (Trânsito)</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>P00428BB</t>
+          <t>P00428BB (Trânsito)</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>P00399BB</t>
+          <t>P00399BB (Trânsito)</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>P00410A</t>
+          <t>P00410A (Trânsito)</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>N2000780</t>
+          <t>N2000780 (Trânsito)</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>N2000501</t>
+          <t>N2000501 (Trânsito)</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>N2000069</t>
+          <t>N2000069 (Trânsito)</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>N1900726</t>
+          <t>N1900726 (Trânsito)</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>N2000069</t>
+          <t>N2000069 (Trânsito)</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>C19113</t>
+          <t>C19113 (Trânsito)</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C19113A</t>
+          <t>C19113A (Trânsito)</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>C18147D</t>
+          <t>C18147D (Trânsito)</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>C18147C</t>
+          <t>C18147C (Trânsito)</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>C18147B</t>
+          <t>C18147B (Trânsito)</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>C18147A</t>
+          <t>C18147A (Trânsito)</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3543,7 +3543,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>C18147</t>
+          <t>C18147 (Trânsito)</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>C19104</t>
+          <t>C19104 (Trânsito)</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>C18125B</t>
+          <t>C18125B (Trânsito)</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>C18147B</t>
+          <t>C18147B (Trânsito)</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>C18147A</t>
+          <t>C18147A (Trânsito)</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>C18147</t>
+          <t>C18147 (Trânsito)</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>C18125A</t>
+          <t>C18125A (Trânsito)</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>BA068675</t>
+          <t>BA068675 (Trânsito)</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>BA068329</t>
+          <t>BA068329 (Trânsito)</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>BA066175</t>
+          <t>BA066175 (Trânsito)</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>BA067144A</t>
+          <t>BA067144A (Trânsito)</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>BA067144</t>
+          <t>BA067144 (Trânsito)</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>BA065289</t>
+          <t>BA065289 (Trânsito)</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>BA065657</t>
+          <t>BA065657 (Trânsito)</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>BA064334A</t>
+          <t>BA064334A (Trânsito)</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>BA064778</t>
+          <t>BA064778 (Trânsito)</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>BA064334</t>
+          <t>BA064334 (Trânsito)</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>BA064047</t>
+          <t>BA064047 (Trânsito)</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>BA063342</t>
+          <t>BA063342 (Trânsito)</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>BA062528</t>
+          <t>BA062528 (Trânsito)</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>BA062753</t>
+          <t>BA062753 (Trânsito)</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>BA060692</t>
+          <t>BA060692 (Trânsito)</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>BA060271</t>
+          <t>BA060271 (Trânsito)</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4343,7 +4343,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>BA060579</t>
+          <t>BA060579 (Trânsito)</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>BA060580</t>
+          <t>BA060580 (Trânsito)</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>BA060218</t>
+          <t>BA060218 (Trânsito)</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>BA058666</t>
+          <t>BA058666 (Trânsito)</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>BA058518</t>
+          <t>BA058518 (Trânsito)</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>BA058289</t>
+          <t>BA058289 (Trânsito)</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>BA057512</t>
+          <t>BA057512 (Trânsito)</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>BA057512A</t>
+          <t>BA057512A (Trânsito)</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>BA056995</t>
+          <t>BA056995 (Trânsito)</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>BA056394</t>
+          <t>BA056394 (Trânsito)</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>BA056009</t>
+          <t>BA056009 (Trânsito)</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>BA055126</t>
+          <t>BA055126 (Trânsito)</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -4739,7 +4739,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>BA055124</t>
+          <t>BA055124 (Trânsito)</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>BA055243</t>
+          <t>BA055243 (Trânsito)</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -4805,7 +4805,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>BA054490A</t>
+          <t>BA054490A (Trânsito)</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>BA054280</t>
+          <t>BA054280 (Trânsito)</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>BA054490</t>
+          <t>BA054490 (Trânsito)</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4904,7 +4904,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>BA053952</t>
+          <t>BA053952 (Trânsito)</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>BA053238</t>
+          <t>BA053238 (Trânsito)</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>BA053288</t>
+          <t>BA053288 (Trânsito)</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>BA069245</t>
+          <t>BA069245 (Trânsito)</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -5098,7 +5098,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>BA067909</t>
+          <t>BA067909 (Trânsito)</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>BA067284A</t>
+          <t>BA067284A (Trânsito)</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -5143,7 +5143,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>BA067284</t>
+          <t>BA067284 (Trânsito)</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>BA066885</t>
+          <t>BA066885 (Trânsito)</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>BA063191</t>
+          <t>BA063191 (Trânsito)</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>BA062427</t>
+          <t>BA062427 (Trânsito)</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>BA058657</t>
+          <t>BA058657 (Trânsito)</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5308,7 +5308,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>BA055640</t>
+          <t>BA055640 (Trânsito)</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>BA053690</t>
+          <t>BA053690 (Trânsito)</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>BA052716</t>
+          <t>BA052716 (Trânsito)</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>BA052080</t>
+          <t>BA052080 (Trânsito)</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>BA051801B</t>
+          <t>BA051801B (Trânsito)</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>BA069674</t>
+          <t>BA069674 (Trânsito)</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>BA067562</t>
+          <t>BA067562 (Trânsito)</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5539,7 +5539,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>BA067713</t>
+          <t>BA067713 (Trânsito)</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>BA067247</t>
+          <t>BA067247 (Trânsito)</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>BA063263</t>
+          <t>BA063263 (Trânsito)</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>BA063118</t>
+          <t>BA063118 (Trânsito)</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>BA062391</t>
+          <t>BA062391 (Trânsito)</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>BA063115</t>
+          <t>BA063115 (Trânsito)</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -5737,7 +5737,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>BA061115A</t>
+          <t>BA061115A (Trânsito)</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>BA060534</t>
+          <t>BA060534 (Trânsito)</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -5803,7 +5803,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>BA061117</t>
+          <t>BA061117 (Trânsito)</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>BA061632</t>
+          <t>BA061632 (Trânsito)</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>BA061115</t>
+          <t>BA061115 (Trânsito)</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>BA058642A</t>
+          <t>BA058642A (Trânsito)</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>BA058392</t>
+          <t>BA058392 (Trânsito)</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>BA058642</t>
+          <t>BA058642 (Trânsito)</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>BA055754</t>
+          <t>BA055754 (Trânsito)</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>BA054932</t>
+          <t>BA054932 (Trânsito)</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>BA053511A</t>
+          <t>BA053511A (Trânsito)</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>BA052095</t>
+          <t>BA052095 (Trânsito)</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -6133,7 +6133,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>BA053511</t>
+          <t>BA053511 (Trânsito)</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>BA052742</t>
+          <t>BA052742 (Trânsito)</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>BA052095A</t>
+          <t>BA052095A (Trânsito)</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>BA052095B</t>
+          <t>BA052095B (Trânsito)</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>BA052742A</t>
+          <t>BA052742A (Trânsito)</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>BA069197A</t>
+          <t>BA069197A (Trânsito)</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -6577,7 +6577,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
@@ -6598,7 +6598,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>BA069197</t>
+          <t>BA069197 (Trânsito)</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -6610,7 +6610,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>BA068239A</t>
+          <t>BA068239A (Trânsito)</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>BA068239</t>
+          <t>BA068239 (Trânsito)</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>BA067993</t>
+          <t>BA067993 (Trânsito)</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -6709,7 +6709,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>BA065990</t>
+          <t>BA065990 (Trânsito)</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>BA064846</t>
+          <t>BA064846 (Trânsito)</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -6775,7 +6775,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>BA064401</t>
+          <t>BA064401 (Trânsito)</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>BA063783B</t>
+          <t>BA063783B (Trânsito)</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -6841,7 +6841,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>BA063301</t>
+          <t>BA063301 (Trânsito)</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -6874,7 +6874,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>BA063783A</t>
+          <t>BA063783A (Trânsito)</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>BA063783</t>
+          <t>BA063783 (Trânsito)</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>BA061807</t>
+          <t>BA061807 (Trânsito)</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -6973,7 +6973,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>BA061621A</t>
+          <t>BA061621A (Trânsito)</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>BA061621</t>
+          <t>BA061621 (Trânsito)</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>BA060092</t>
+          <t>BA060092 (Trânsito)</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>BA060724</t>
+          <t>BA060724 (Trânsito)</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>BA059919</t>
+          <t>BA059919 (Trânsito)</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>BA058139</t>
+          <t>BA058139 (Trânsito)</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>BA058139A</t>
+          <t>BA058139A (Trânsito)</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -7204,7 +7204,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>BA057625</t>
+          <t>BA057625 (Trânsito)</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -7237,7 +7237,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>BA057326</t>
+          <t>BA057326 (Trânsito)</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>BA056641</t>
+          <t>BA056641 (Trânsito)</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -7303,7 +7303,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>BA056256</t>
+          <t>BA056256 (Trânsito)</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -7357,7 +7357,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>BA054944</t>
+          <t>BA054944 (Trânsito)</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -7369,7 +7369,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -7390,7 +7390,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>BA054075</t>
+          <t>BA054075 (Trânsito)</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>BA053290</t>
+          <t>BA053290 (Trânsito)</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>BA052361</t>
+          <t>BA052361 (Trânsito)</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -7468,7 +7468,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>BA051128B</t>
+          <t>BA051128B (Trânsito)</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -7501,7 +7501,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>BA071279</t>
+          <t>BA071279 (Trânsito)</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -7575,7 +7575,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>BA071080</t>
+          <t>BA071080 (Trânsito)</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>BA070132</t>
+          <t>BA070132 (Trânsito)</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -7641,7 +7641,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>BA069682</t>
+          <t>BA069682 (Trânsito)</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>BA067962A</t>
+          <t>BA067962A (Trânsito)</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>BA068462A</t>
+          <t>BA068462A (Trânsito)</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -7740,7 +7740,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>BA068462</t>
+          <t>BA068462 (Trânsito)</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -7794,7 +7794,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>BA067962</t>
+          <t>BA067962 (Trânsito)</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -7806,7 +7806,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>BA067563</t>
+          <t>BA067563 (Trânsito)</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -7839,7 +7839,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>BA067156A</t>
+          <t>BA067156A (Trânsito)</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>BA067156</t>
+          <t>BA067156 (Trânsito)</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -7905,7 +7905,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>BA066968C</t>
+          <t>BA066968C (Trânsito)</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -7938,7 +7938,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>BA066968A</t>
+          <t>BA066968A (Trânsito)</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
@@ -7992,7 +7992,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>BA066968</t>
+          <t>BA066968 (Trânsito)</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>BA066127</t>
+          <t>BA066127 (Trânsito)</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>BA064855</t>
+          <t>BA064855 (Trânsito)</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -8070,7 +8070,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>BA064855A</t>
+          <t>BA064855A (Trânsito)</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -8103,7 +8103,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>BA062603B</t>
+          <t>BA062603B (Trânsito)</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -8136,7 +8136,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>BA062603A</t>
+          <t>BA062603A (Trânsito)</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -8169,7 +8169,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>BA062603</t>
+          <t>BA062603 (Trânsito)</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>BA062144A</t>
+          <t>BA062144A (Trânsito)</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -8235,7 +8235,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>BA060656A</t>
+          <t>BA060656A (Trânsito)</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>BA062144</t>
+          <t>BA062144 (Trânsito)</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -8301,7 +8301,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>BA060485</t>
+          <t>BA060485 (Trânsito)</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -8334,7 +8334,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>BA060485A</t>
+          <t>BA060485A (Trânsito)</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>BA060656</t>
+          <t>BA060656 (Trânsito)</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>BA056468B</t>
+          <t>BA056468B (Trânsito)</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -8433,7 +8433,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>BA058108</t>
+          <t>BA058108 (Trânsito)</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -8487,7 +8487,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>BA056468A</t>
+          <t>BA056468A (Trânsito)</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -8499,7 +8499,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>BA056468</t>
+          <t>BA056468 (Trânsito)</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>BA056521</t>
+          <t>BA056521 (Trânsito)</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>BA056294B</t>
+          <t>BA056294B (Trânsito)</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -8598,7 +8598,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>BA055780A</t>
+          <t>BA055780A (Trânsito)</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -8631,7 +8631,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>BA056294</t>
+          <t>BA056294 (Trânsito)</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -8664,7 +8664,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>BA056294A</t>
+          <t>BA056294A (Trânsito)</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -8697,7 +8697,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>BA055780</t>
+          <t>BA055780 (Trânsito)</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -8730,7 +8730,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>BA054596</t>
+          <t>BA054596 (Trânsito)</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>BA054281</t>
+          <t>BA054281 (Trânsito)</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>BA054204</t>
+          <t>BA054204 (Trânsito)</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>BA071139</t>
+          <t>BA071139 (Trânsito)</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>BA068903</t>
+          <t>BA068903 (Trânsito)</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -8936,7 +8936,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -8957,7 +8957,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>BA066699</t>
+          <t>BA066699 (Trânsito)</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -8969,7 +8969,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>BA064204</t>
+          <t>BA064204 (Trânsito)</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>BA061497</t>
+          <t>BA061497 (Trânsito)</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>BA059513</t>
+          <t>BA059513 (Trânsito)</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -9068,7 +9068,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>BA051368</t>
+          <t>BA051368 (Trânsito)</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -9101,7 +9101,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
@@ -9134,7 +9134,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="H261" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="H262" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>BA071278</t>
+          <t>BA071278 (Trânsito)</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -9257,7 +9257,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>BA069737</t>
+          <t>BA069737 (Trânsito)</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -9290,7 +9290,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>BA067976A</t>
+          <t>BA067976A (Trânsito)</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -9323,7 +9323,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>BA067976</t>
+          <t>BA067976 (Trânsito)</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -9356,7 +9356,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>BA069036</t>
+          <t>BA069036 (Trânsito)</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>BA067124A</t>
+          <t>BA067124A (Trânsito)</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -9422,7 +9422,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>BA067121</t>
+          <t>BA067121 (Trânsito)</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -9455,7 +9455,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>BA067124</t>
+          <t>BA067124 (Trânsito)</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -9488,7 +9488,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>BA066363</t>
+          <t>BA066363 (Trânsito)</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>BA066032A</t>
+          <t>BA066032A (Trânsito)</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -9554,7 +9554,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>BA066032</t>
+          <t>BA066032 (Trânsito)</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -9587,7 +9587,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>BA064487</t>
+          <t>BA064487 (Trânsito)</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -9620,7 +9620,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>BA065460</t>
+          <t>BA065460 (Trânsito)</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -9653,7 +9653,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
@@ -9674,7 +9674,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>BA065460A</t>
+          <t>BA065460A (Trânsito)</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>BA060505A</t>
+          <t>BA060505A (Trânsito)</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -9719,7 +9719,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>BA060505</t>
+          <t>BA060505 (Trânsito)</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -9752,7 +9752,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>BA061135</t>
+          <t>BA061135 (Trânsito)</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -9785,7 +9785,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>BA058213</t>
+          <t>BA058213 (Trânsito)</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -9818,7 +9818,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>BA058793</t>
+          <t>BA058793 (Trânsito)</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -9851,7 +9851,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>BA056203A</t>
+          <t>BA056203A (Trânsito)</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>BA056203</t>
+          <t>BA056203 (Trânsito)</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -9917,7 +9917,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>BA055044</t>
+          <t>BA055044 (Trânsito)</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -9950,7 +9950,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>BA055043</t>
+          <t>BA055043 (Trânsito)</t>
         </is>
       </c>
       <c r="E286" t="n">
@@ -9983,7 +9983,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>BA051789B</t>
+          <t>BA051789B (Trânsito)</t>
         </is>
       </c>
       <c r="E287" t="n">
@@ -10016,7 +10016,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -10037,7 +10037,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>BA053214</t>
+          <t>BA053214 (Trânsito)</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
@@ -10070,7 +10070,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>BA051789C</t>
+          <t>BA051789C (Trânsito)</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>BA052292</t>
+          <t>BA052292 (Trânsito)</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -10115,7 +10115,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
@@ -10148,7 +10148,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H291" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>BA067671A</t>
+          <t>BA067671A (Trânsito)</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -10189,7 +10189,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>BA067246A</t>
+          <t>BA067246A (Trânsito)</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>BA067671</t>
+          <t>BA067671 (Trânsito)</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -10255,7 +10255,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>BA067246</t>
+          <t>BA067246 (Trânsito)</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>BA065735A</t>
+          <t>BA065735A (Trânsito)</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>BA065735</t>
+          <t>BA065735 (Trânsito)</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -10354,7 +10354,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
@@ -10375,7 +10375,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>BA061673A</t>
+          <t>BA061673A (Trânsito)</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>BA061673</t>
+          <t>BA061673 (Trânsito)</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>BA059120</t>
+          <t>BA059120 (Trânsito)</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -10453,7 +10453,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>BA057996A</t>
+          <t>BA057996A (Trânsito)</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -10486,7 +10486,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>BA057996</t>
+          <t>BA057996 (Trânsito)</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -10519,7 +10519,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>BA055639</t>
+          <t>BA055639 (Trânsito)</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>BA052310D</t>
+          <t>BA052310D (Trânsito)</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -10585,7 +10585,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>BA052310B</t>
+          <t>BA052310B (Trânsito)</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -10618,7 +10618,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>BA052310C</t>
+          <t>BA052310C (Trânsito)</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -10651,7 +10651,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>BA052310A</t>
+          <t>BA052310A (Trânsito)</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>BA052310</t>
+          <t>BA052310 (Trânsito)</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -10717,7 +10717,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
@@ -10750,7 +10750,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H309" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H310" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="H311" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H312" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H313" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>BA066027</t>
+          <t>BA066027 (Trânsito)</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>BA064209</t>
+          <t>BA064209 (Trânsito)</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -10988,7 +10988,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>BA058644B</t>
+          <t>BA058644B (Trânsito)</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
@@ -11042,7 +11042,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>BA058644</t>
+          <t>BA058644 (Trânsito)</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -11054,7 +11054,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>BA058644A</t>
+          <t>BA058644A (Trânsito)</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -11087,7 +11087,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>BA058206</t>
+          <t>BA058206 (Trânsito)</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -11120,7 +11120,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>BA058141A</t>
+          <t>BA058141A (Trânsito)</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -11153,7 +11153,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>BA058141</t>
+          <t>BA058141 (Trânsito)</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>BA056296</t>
+          <t>BA056296 (Trânsito)</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -11219,7 +11219,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
@@ -11240,7 +11240,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>BA055419</t>
+          <t>BA055419 (Trânsito)</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -11252,7 +11252,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>BA054282</t>
+          <t>BA054282 (Trânsito)</t>
         </is>
       </c>
       <c r="E324" t="n">
@@ -11285,7 +11285,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>BA054211</t>
+          <t>BA054211 (Trânsito)</t>
         </is>
       </c>
       <c r="E325" t="n">
@@ -11318,7 +11318,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
@@ -11351,7 +11351,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H326" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H327" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>BA068017</t>
+          <t>BA068017 (Trânsito)</t>
         </is>
       </c>
       <c r="E328" t="n">
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>BA067521</t>
+          <t>BA067521 (Trânsito)</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -11466,7 +11466,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
@@ -11487,7 +11487,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>BA067521A</t>
+          <t>BA067521A (Trânsito)</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -11499,7 +11499,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>BA066051</t>
+          <t>BA066051 (Trânsito)</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>BA064843</t>
+          <t>BA064843 (Trânsito)</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
@@ -11586,7 +11586,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>BA064520</t>
+          <t>BA064520 (Trânsito)</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -11598,7 +11598,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>BA063341A</t>
+          <t>BA063341A (Trânsito)</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -11631,7 +11631,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>BA063341</t>
+          <t>BA063341 (Trânsito)</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -11664,7 +11664,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>BA061198</t>
+          <t>BA061198 (Trânsito)</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -11697,7 +11697,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>BA060301</t>
+          <t>BA060301 (Trânsito)</t>
         </is>
       </c>
       <c r="E337" t="n">
@@ -11730,7 +11730,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>BA060919</t>
+          <t>BA060919 (Trânsito)</t>
         </is>
       </c>
       <c r="E338" t="n">
@@ -11763,7 +11763,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
@@ -11784,7 +11784,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>BA056533</t>
+          <t>BA056533 (Trânsito)</t>
         </is>
       </c>
       <c r="E339" t="n">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>BA056018</t>
+          <t>BA056018 (Trânsito)</t>
         </is>
       </c>
       <c r="E340" t="n">
@@ -11829,7 +11829,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -11850,7 +11850,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>BA055223</t>
+          <t>BA055223 (Trânsito)</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
@@ -11883,7 +11883,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>BA054470A</t>
+          <t>BA054470A (Trânsito)</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -11895,7 +11895,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>BA054470</t>
+          <t>BA054470 (Trânsito)</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -11928,7 +11928,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>BA053612A</t>
+          <t>BA053612A (Trânsito)</t>
         </is>
       </c>
       <c r="E344" t="n">
@@ -11961,7 +11961,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>BA053612</t>
+          <t>BA053612 (Trânsito)</t>
         </is>
       </c>
       <c r="E345" t="n">
@@ -11994,7 +11994,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
@@ -12027,7 +12027,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H346" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>AU031287</t>
+          <t>AU031287 (Trânsito)</t>
         </is>
       </c>
       <c r="E347" t="n">
@@ -12068,7 +12068,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>AU030029A</t>
+          <t>AU030029A (Trânsito)</t>
         </is>
       </c>
       <c r="E348" t="n">
@@ -12101,7 +12101,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
@@ -12122,7 +12122,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>AU030029</t>
+          <t>AU030029 (Trânsito)</t>
         </is>
       </c>
       <c r="E349" t="n">
@@ -12134,7 +12134,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>AU028240A</t>
+          <t>AU028240A (Trânsito)</t>
         </is>
       </c>
       <c r="E350" t="n">
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>AU027912B</t>
+          <t>AU027912B (Trânsito)</t>
         </is>
       </c>
       <c r="E351" t="n">
@@ -12200,7 +12200,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr"/>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>AU027912</t>
+          <t>AU027912 (Trânsito)</t>
         </is>
       </c>
       <c r="E352" t="n">
@@ -12233,7 +12233,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
@@ -12254,7 +12254,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>AU027912A</t>
+          <t>AU027912A (Trânsito)</t>
         </is>
       </c>
       <c r="E353" t="n">
@@ -12266,7 +12266,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>AU027913</t>
+          <t>AU027913 (Trânsito)</t>
         </is>
       </c>
       <c r="E354" t="n">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
@@ -12320,7 +12320,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>AU027315</t>
+          <t>AU027315 (Trânsito)</t>
         </is>
       </c>
       <c r="E355" t="n">
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>AU027193B</t>
+          <t>AU027193B (Trânsito)</t>
         </is>
       </c>
       <c r="E356" t="n">
@@ -12365,7 +12365,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>AU027193C</t>
+          <t>AU027193C (Trânsito)</t>
         </is>
       </c>
       <c r="E357" t="n">
@@ -12398,7 +12398,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>AU027193</t>
+          <t>AU027193 (Trânsito)</t>
         </is>
       </c>
       <c r="E358" t="n">
@@ -12431,7 +12431,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>AU027193A</t>
+          <t>AU027193A (Trânsito)</t>
         </is>
       </c>
       <c r="E359" t="n">
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr"/>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>AU024971</t>
+          <t>AU024971 (Trânsito)</t>
         </is>
       </c>
       <c r="E360" t="n">
@@ -12497,7 +12497,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr"/>
@@ -12518,7 +12518,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>AU024451B</t>
+          <t>AU024451B (Trânsito)</t>
         </is>
       </c>
       <c r="E361" t="n">
@@ -12530,7 +12530,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr"/>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>AU026640</t>
+          <t>AU026640 (Trânsito)</t>
         </is>
       </c>
       <c r="E362" t="n">
@@ -12563,7 +12563,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>AU023374</t>
+          <t>AU023374 (Trânsito)</t>
         </is>
       </c>
       <c r="E363" t="n">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr"/>
@@ -12617,7 +12617,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>AU029060-A</t>
+          <t>AU029060-A (Trânsito)</t>
         </is>
       </c>
       <c r="E364" t="n">
@@ -12629,7 +12629,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr"/>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>AU029060</t>
+          <t>AU029060 (Trânsito)</t>
         </is>
       </c>
       <c r="E365" t="n">
@@ -12662,7 +12662,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr"/>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>AU029699</t>
+          <t>AU029699 (Trânsito)</t>
         </is>
       </c>
       <c r="E366" t="n">
@@ -12695,7 +12695,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr"/>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>AU028338</t>
+          <t>AU028338 (Trânsito)</t>
         </is>
       </c>
       <c r="E367" t="n">
@@ -12728,7 +12728,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr"/>
@@ -12749,7 +12749,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>AU028205</t>
+          <t>AU028205 (Trânsito)</t>
         </is>
       </c>
       <c r="E368" t="n">
@@ -12761,7 +12761,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>AU027075B</t>
+          <t>AU027075B (Trânsito)</t>
         </is>
       </c>
       <c r="E369" t="n">
@@ -12794,7 +12794,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr"/>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>AU027075</t>
+          <t>AU027075 (Trânsito)</t>
         </is>
       </c>
       <c r="E370" t="n">
@@ -12827,7 +12827,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr"/>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>AU026853</t>
+          <t>AU026853 (Trânsito)</t>
         </is>
       </c>
       <c r="E371" t="n">
@@ -12860,7 +12860,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr"/>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>AU026370A</t>
+          <t>AU026370A (Trânsito)</t>
         </is>
       </c>
       <c r="E372" t="n">
@@ -12893,7 +12893,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>AU026370</t>
+          <t>AU026370 (Trânsito)</t>
         </is>
       </c>
       <c r="E373" t="n">
@@ -12926,7 +12926,7 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr"/>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>AU025921</t>
+          <t>AU025921 (Trânsito)</t>
         </is>
       </c>
       <c r="E374" t="n">
@@ -12959,7 +12959,7 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr"/>
@@ -12980,7 +12980,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>AU025077B</t>
+          <t>AU025077B (Trânsito)</t>
         </is>
       </c>
       <c r="E375" t="n">
@@ -12992,7 +12992,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr"/>
@@ -13013,7 +13013,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>AU025077A</t>
+          <t>AU025077A (Trânsito)</t>
         </is>
       </c>
       <c r="E376" t="n">
@@ -13025,7 +13025,7 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
@@ -13046,7 +13046,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>AU025077</t>
+          <t>AU025077 (Trânsito)</t>
         </is>
       </c>
       <c r="E377" t="n">
@@ -13058,7 +13058,7 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr"/>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H378" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="H379" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>AU032301</t>
+          <t>AU032301 (Trânsito)</t>
         </is>
       </c>
       <c r="E380" t="n">
@@ -13173,7 +13173,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>AU031086</t>
+          <t>AU031086 (Trânsito)</t>
         </is>
       </c>
       <c r="E381" t="n">
@@ -13206,7 +13206,7 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
@@ -13227,7 +13227,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>AU030970</t>
+          <t>AU030970 (Trânsito)</t>
         </is>
       </c>
       <c r="E382" t="n">
@@ -13239,7 +13239,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
@@ -13260,7 +13260,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>AU030570</t>
+          <t>AU030570 (Trânsito)</t>
         </is>
       </c>
       <c r="E383" t="n">
@@ -13272,7 +13272,7 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>AU029531A</t>
+          <t>AU029531A (Trânsito)</t>
         </is>
       </c>
       <c r="E384" t="n">
@@ -13305,7 +13305,7 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr"/>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>AU029531</t>
+          <t>AU029531 (Trânsito)</t>
         </is>
       </c>
       <c r="E385" t="n">
@@ -13338,7 +13338,7 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr"/>
@@ -13359,7 +13359,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>AU028206</t>
+          <t>AU028206 (Trânsito)</t>
         </is>
       </c>
       <c r="E386" t="n">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>AU027828</t>
+          <t>AU027828 (Trânsito)</t>
         </is>
       </c>
       <c r="E387" t="n">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>AU027482</t>
+          <t>AU027482 (Trânsito)</t>
         </is>
       </c>
       <c r="E388" t="n">
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>BA051407</t>
+          <t>BA051407 (Trânsito)</t>
         </is>
       </c>
       <c r="E389" t="n">
@@ -13470,7 +13470,7 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>BA052786</t>
+          <t>BA052786 (Trânsito)</t>
         </is>
       </c>
       <c r="E390" t="n">
@@ -13503,7 +13503,7 @@
         </is>
       </c>
       <c r="G390" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
@@ -13536,7 +13536,7 @@
         </is>
       </c>
       <c r="G391" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="H391" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>AU026508</t>
+          <t>AU026508 (Trânsito)</t>
         </is>
       </c>
       <c r="E392" t="n">
@@ -13577,7 +13577,7 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
@@ -13598,7 +13598,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>AU026075</t>
+          <t>AU026075 (Trânsito)</t>
         </is>
       </c>
       <c r="E393" t="n">
@@ -13610,7 +13610,7 @@
         </is>
       </c>
       <c r="G393" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr"/>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>AU025285</t>
+          <t>AU025285 (Trânsito)</t>
         </is>
       </c>
       <c r="E394" t="n">
@@ -13643,7 +13643,7 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr"/>
